--- a/Documentação/moscow petshop.xlsx
+++ b/Documentação/moscow petshop.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Documents\GitHub\pet\petshop\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\agenda\petshop\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25AE6161-1148-4DAB-AB07-9CD49C38BA9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Moscow" sheetId="1" r:id="rId1"/>
@@ -287,11 +286,6 @@
     <t xml:space="preserve">Testes </t>
   </si>
   <si>
-    <t xml:space="preserve">PRODUCT BACKLOG PROJETO:  Petshop
-Criar uma loja virtual com as funcionalidades de inserção, alteração, exclusão de produtos e cadastro de clientes, onde haverá interação com o banco de dados no formato MySQL.
-</t>
-  </si>
-  <si>
     <t>Planejamento</t>
   </si>
   <si>
@@ -383,12 +377,15 @@
   </si>
   <si>
     <t>Criar listar pedidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -669,6 +666,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -681,6 +684,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -697,21 +709,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1213,11 +1210,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1236,19 +1233,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
+      <c r="A1" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1286,211 +1283,211 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="20" t="s">
+      <c r="A3" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="24">
         <v>1</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="24">
         <v>1</v>
       </c>
-      <c r="I3" s="28">
+      <c r="I3" s="24">
         <v>1</v>
       </c>
       <c r="J3" s="16"/>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="21"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
+        <v>30</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
       <c r="J4" s="17"/>
-      <c r="K4" s="21"/>
+      <c r="K4" s="23"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="21"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
+        <v>29</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
       <c r="J5" s="17"/>
-      <c r="K5" s="21"/>
+      <c r="K5" s="23"/>
     </row>
     <row r="6" spans="1:11" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="20" t="s">
+      <c r="A6" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="24">
         <v>5</v>
       </c>
       <c r="H6" s="4">
         <v>1</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="24">
         <v>5</v>
       </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="21"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="4"/>
       <c r="D7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="29"/>
+        <v>33</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="4">
         <v>1</v>
       </c>
-      <c r="I7" s="29"/>
+      <c r="I7" s="26"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="21"/>
+      <c r="K7" s="23"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="4"/>
       <c r="D8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="29"/>
+        <v>34</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="4">
         <v>1</v>
       </c>
-      <c r="I8" s="29"/>
+      <c r="I8" s="26"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="21"/>
+      <c r="K8" s="23"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="21"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="4"/>
       <c r="D9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="28">
+        <v>35</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="24">
         <v>1</v>
       </c>
-      <c r="I9" s="29"/>
+      <c r="I9" s="26"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="21"/>
+      <c r="K9" s="23"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="21"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="4"/>
       <c r="D10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
+        <v>36</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="21"/>
+      <c r="K10" s="23"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="21"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="4"/>
       <c r="D11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
+        <v>37</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="21"/>
+      <c r="K11" s="23"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="21"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="4"/>
       <c r="D12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="23"/>
+    </row>
+    <row r="13" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="21"/>
-    </row>
-    <row r="13" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="24">
         <v>5</v>
       </c>
       <c r="H13" s="4">
         <v>1</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="24">
         <v>5</v>
       </c>
       <c r="J13" s="4"/>
@@ -1499,142 +1496,142 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="21"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="4"/>
       <c r="D14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="28">
+        <v>47</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="24">
         <v>1</v>
       </c>
-      <c r="I14" s="29"/>
+      <c r="I14" s="26"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="20" t="s">
+      <c r="K14" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="4"/>
       <c r="D15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
+        <v>49</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="21"/>
+      <c r="K15" s="23"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="4"/>
       <c r="D16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="29"/>
+        <v>50</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="26"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="21"/>
+      <c r="K16" s="23"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="21"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="4"/>
       <c r="D17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="28">
+        <v>51</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="24">
         <v>1</v>
       </c>
-      <c r="I17" s="29"/>
+      <c r="I17" s="26"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="21"/>
+      <c r="K17" s="23"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="21"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="4"/>
       <c r="D18" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="29"/>
+        <v>52</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="26"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="21"/>
+      <c r="K18" s="23"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="21"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="4"/>
       <c r="D19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="28">
+        <v>53</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="24">
         <v>1</v>
       </c>
-      <c r="I19" s="29"/>
+      <c r="I19" s="26"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="21"/>
+      <c r="K19" s="23"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="21"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="4"/>
       <c r="D20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
+        <v>40</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="21"/>
+      <c r="K20" s="23"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="21"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="4"/>
       <c r="D21" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
+        <v>41</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="22"/>
+      <c r="K21" s="27"/>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="21"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="4"/>
       <c r="D22" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="21"/>
+        <v>54</v>
+      </c>
+      <c r="E22" s="21"/>
+      <c r="F22" s="23"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -1642,14 +1639,14 @@
       <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="21"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="4"/>
       <c r="D23" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="21"/>
+        <v>55</v>
+      </c>
+      <c r="E23" s="21"/>
+      <c r="F23" s="23"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -1657,14 +1654,14 @@
       <c r="K23" s="3"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="21"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="4"/>
       <c r="D24" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="21"/>
+        <v>56</v>
+      </c>
+      <c r="E24" s="21"/>
+      <c r="F24" s="23"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -1672,14 +1669,14 @@
       <c r="K24" s="3"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="21"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="4"/>
       <c r="D25" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="21"/>
+        <v>57</v>
+      </c>
+      <c r="E25" s="21"/>
+      <c r="F25" s="23"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -1687,18 +1684,18 @@
       <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="22" t="s">
         <v>21</v>
       </c>
       <c r="G26" s="4"/>
@@ -1708,14 +1705,14 @@
       <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="21"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="4"/>
       <c r="D27" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="21"/>
+        <v>43</v>
+      </c>
+      <c r="E27" s="21"/>
+      <c r="F27" s="23"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -1723,14 +1720,14 @@
       <c r="K27" s="3"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="21"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="4"/>
       <c r="D28" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="21"/>
+        <v>44</v>
+      </c>
+      <c r="E28" s="21"/>
+      <c r="F28" s="23"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -1738,14 +1735,14 @@
       <c r="K28" s="3"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="21"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="4"/>
       <c r="D29" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="21"/>
+        <v>45</v>
+      </c>
+      <c r="E29" s="21"/>
+      <c r="F29" s="23"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -1753,14 +1750,14 @@
       <c r="K29" s="3"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="21"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="4"/>
       <c r="D30" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="21"/>
+        <v>46</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="23"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -2614,21 +2611,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A13:A25"/>
-    <mergeCell ref="E13:E25"/>
-    <mergeCell ref="F13:F25"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="I13:I21"/>
-    <mergeCell ref="K14:K21"/>
-    <mergeCell ref="B13:B25"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="I3:I5"/>
     <mergeCell ref="A26:A30"/>
     <mergeCell ref="E26:E30"/>
     <mergeCell ref="F26:F30"/>
@@ -2645,15 +2627,30 @@
     <mergeCell ref="K6:K12"/>
     <mergeCell ref="G13:G21"/>
     <mergeCell ref="H14:H16"/>
+    <mergeCell ref="I13:I21"/>
+    <mergeCell ref="K14:K21"/>
+    <mergeCell ref="B13:B25"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="A13:A25"/>
+    <mergeCell ref="E13:E25"/>
+    <mergeCell ref="F13:F25"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H19:H21"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3 F6 F13 F26 F31:F95" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3 F6 F13 F26 F31:F95">
       <formula1>"1 - Must Have,2 - Should Have, 3 - Could Have,4 - Won't Have for Now"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B6 B13 B26 B31:B95" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B6 B13 B26 B31:B95">
       <formula1>"Muito Alta,Alta,Média,Baixa,Muito Baixa"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3 K6 K13:K14 K22:K95" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3 K6 K13:K14 K22:K95">
       <formula1>"Na Fila,Em Produção,Parado,Feito,Cancelado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2664,7 +2661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2737,7 +2734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
